--- a/getTranslationFromDeepL/paraNeedTranslate/paragraphElement-phase2.xlsx
+++ b/getTranslationFromDeepL/paraNeedTranslate/paragraphElement-phase2.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17481A8-5E73-4FF4-9269-F0F5D117C4ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_bookmark0" localSheetId="0">Sheet1!$A$215</definedName>
+    <definedName name="_bookmark1" localSheetId="0">Sheet1!$A$58</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,14 +23,846 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="268">
+  <si>
+    <t>Duplex links to the commander and to Btry's subordinates are required. The message class for both links is command.</t>
+  </si>
+  <si>
+    <t>The SSFU can launch surface-to-surface weapons against both scripted and commanded assignment targets. These surface-to-surface weapons can either be a ballistic missile or a weapon defined as a captive platform or complex weapon using the AGAttacker ruleset and a specified airframe. Once active, the SSFU launches weapons against all scripted targets according to the launch times specified on its target list. Once all of the scripted targets have been engaged, the SSFU can engage against commanded assignment targets.</t>
+  </si>
+  <si>
+    <t>The SSFU receives target assignments from its commander and sends acknowledgement messages to the commander indicating whether it can execute an assignment. The SSFU then launches on the assigned target and, after launching, moves to the next waypoint. Both scripted and commanded launches take place   only at launch sites.</t>
+  </si>
+  <si>
+    <t>The SSFU also has the capability of hiding from attackers, as well as reloading. Hide sites can be used to reduce the SSFU's susceptibility to attack or to damage. Reload sites can be used to replenish the SSFU's weapons count to its count-per-reload number of weapons.</t>
+  </si>
+  <si>
+    <t>The SSFU ruleset uses tactical operations, launch, intercept, reload, and hide phases.</t>
+  </si>
+  <si>
+    <t>The setup operation is the part of the Tactical Operations Phase that is scheduled when the SSFU reaches a launch site and the SSFU still has weapons. This operation represents the amount of time it takes to ready the launcher for launching weapons against targets. Upon completing the setup, the launch phase is scheduled if a target exists. If no target exists, the Tac. Ops. Phase is scheduled, for the tear-down operation, at the waypoint off-time and the SSFU is free to relocate to the next waypoint. Upon reaching the launch site, if the SSFU has no weapons, it immediately relocates to the next waypoint without executing the setup operation.</t>
+  </si>
+  <si>
+    <t>If the SSFU is at a deployed user-defined launch site during this phase, its susceptibilities are adjusted based on the site's susceptibility parameters.Otherwise, the SSFU's susceptibilities to detection and damage remain unchanged. Subsection 4.7.32 describes the susceptibility adjustments at a launch site.</t>
+  </si>
+  <si>
+    <t>For further explanation of the Tactical Operations phase see section 4.20 of the Methodology Manual.</t>
+  </si>
+  <si>
+    <t>If a viable target exists on its target list, the launch phase of the SSFU is scheduled upon reaching a launch site and executing the setup operation. The target can be either scripted or received through a commanded assignment. If the target is within range of the weapon, a surface-to-surface weapon is launched according to the launch-phase timing delays. If the target is no longer in range, a condition that should not occur, the tear-down operation is scheduled and the launcher is ready to relocate to the next waypoint. After launching, the tear-down operation is scheduled and the launcher is ready to relocate to the next waypoint.</t>
+  </si>
+  <si>
+    <t>If the SSFU is at a deployed user-defined launch site during this phase, its susceptibilities are adjusted based on the site's susceptibility parameters. Otherwise, the SSFU's susceptibilities to detection and damage remain unchanged. Subsection 4.7.32 describes the susceptibility adjustments at a launch site.</t>
+  </si>
+  <si>
+    <t>To introduce randomness into the target position, the Random Targeting option, located on the Launch Phase window may be used. The purpose behind this option is to be able to treat a target as a targeted area as opposed to a single point. If selected, a random target position within the target’s system radius will be computed by EADSIM. If randomness is eliminated, no error will be applied to the target location.</t>
+  </si>
+  <si>
+    <t>Once X and Y are randomly computed, the displacements are rotated into ECI coordinates containing the new target position. This target position will be the aim point for the missile. If CEP options are selected, the CEP will be applied about this targeted aim point.</t>
+  </si>
+  <si>
+    <t>The tear-down operation is the part of the Tactical Operations phase that is scheduled after the launch phase has been completed and the weapon is launched, or when the setup operation is complete and no targets exist on the target list. This operation represents the amount of time it takes to take down the launcher and ready it for transport. Upon completion of this operation, the SSFU begins moving to the next waypoint in the waypoint list.</t>
+  </si>
+  <si>
+    <t>The intercept phase evaluates the results of the engagement. The ballistic missile model allows the deployment of a variety of missile objects, both lethal and non-lethal. Lethal objects are objects for which a kill determination is performed upon impact. Kill determinations are not performed when non-lethal objects  impact. Booster and RV type objects are considered lethal and will be evaluated for target destruction upon impact. The Booster being a lethal object  provides  modeling of a non-separating ballistic missile. Debris, PBV, Decoy and Chaff type objects are considered non-lethal and no further processing will occur when they impact.</t>
+  </si>
+  <si>
+    <t>The intercept phase determines the result of ballistic missile engagements. To determine when to schedule the intercept phase, the C3I model performs a look ahead while updating state information for each scenario interval to determine if a missile impacts within the next scenario interval. The intercept phase is scheduled at the time of missile impact/detonation plus the start time for the phase. For the case where detonation occurs with a non-zero height of burst, intercept phase start time is ignored and the intercept phase is scheduled for the exact time of detonation. For the nuclear detonation case, interceptor missiles and ballistic missile are propagated to the time of detonation to support nuclear area kill determinations. Propagation of ballistic missiles and interceptors is performed by the internal 3-DOF aerodynamic flight model as described in section 5.7.3 of the Methodology Manual.</t>
+  </si>
+  <si>
+    <t>The specific target is evaluated first. If the ground range from the targeted location to the actual target location is greater than the maximum lethal radius, the target will not be destroyed. The probability of kill against the specific target type   is next evaluated against a random draw from a uniform distribution. If the target does not match a specified target type for which a probability of kill has been defined, the default probability of kill is used. If the engagement is judged a success based on the random draw, three separate conditions are evaluated. If the target is already dead, the intercept is logged as a hit on a dead target (Fail Dead Ground).  If the target is an airbase, the action is logged as Hit Base and the airbase is damaged as described in Subsection 4.7.3.2. Otherwise, the engagement is logged   as a Success. If randomness is eliminated, the engagements are always a success.</t>
+  </si>
+  <si>
+    <t>The weapon element definition also provides an option for an area kill against ground platforms. When a weapon with the area kill option selected intercepts the ground platform (i.e., impacts), the lethality of the weapon is evaluated against all platforms within the weapon's lethal radius. For a weapon event platform to be destroyed using area kill, the weapon event platform must not be at its detonation point.</t>
+  </si>
+  <si>
+    <t>A weapon's Pk can be either a single-value Pk or a Pk table. The Pk tables include the parametrics of downrange and crossrange from the intercept position to the location of the platform being evaluated. Downrange is computed in the horizontal plane along a vector from the launch position to the intercept position. Crossrange is computed along a vector orthogonal to the downrange component in the horizontal plane. These two parametrics can be used to form a two-dimensional table of lethality data. The Pk tables also include a parametric of ground range   from the intercept position. This option can be used as a one dimensional table of lethality data. More information about the Pk tables is given in Appendix B6.</t>
+  </si>
+  <si>
+    <t>A single-value Pk is the user-specified Pk out to the user-defined percentage of the weapon's lethal range. The Pk decreases linearly from the specified value at the user-defined percentage of the weapon's lethal range to a second user-defined percentage of the specified Pk value at the lethal range of the weapon. This Pk is compared with a random draw.</t>
+  </si>
+  <si>
+    <t>When the target is an SSFU, the weapon's Pk may be degraded to help model protective capabilities of various sites. If the SSFU is at a user-defined site and the site has an anti-weapon, the weapon's Pk is reduced by the effectiveness of the anti-weapon [R(eff)]. The reduction is computed as:</t>
+  </si>
+  <si>
+    <t>When the SSFU arrives at a reload site the reload phase is scheduled. During the reload phase, all weapons on the SSFU that require reloading, are reloaded to their count-per-reload value provided the reload site is still alive. The SSFU remains at the site until the maximum of the reload phase timing or the waypoint off-time is reached or until a commanded assignment sends the SSFU on to its next waypoint.</t>
+  </si>
+  <si>
+    <t>If the reload site is a user-defined site that does not possess any of the required weapons and the SSFU is totally out of weapons, then it either goes to another reload site if it exists; goes to a hide site, if it exists; or remains at this site.</t>
+  </si>
+  <si>
+    <t>If the reload site is not a user-defined site, then it is assumed that an infinite amount of the necessary weapon(s) exists and the unit reloads to its count-per- reload value(s) for each weapon.</t>
+  </si>
+  <si>
+    <t>If the SSFU does not require reloading, the FU will remain at the site until the off-time of the waypoint is reached, or until a commanded assignment sends the SSFU on to its next waypoint.</t>
+  </si>
+  <si>
+    <t>If the SSFU is at a deployed user-defined reload site during this phase, its susceptibilities are adjusted based on the site's susceptibility parameters. Otherwise, the SSFU's susceptibilities to detection and damage remain unchanged. Subsection 4.7.31 describes the susceptibility adjustments at a reload site.</t>
+  </si>
+  <si>
+    <t>If the SSFU arrives at a hide site, then the hide phase is scheduled for the FU. If the SSFU has weapons and a target, it will stay at the hide site until hide phase repeat time is reached.</t>
+  </si>
+  <si>
+    <t>If the SSFU has weapons but does not have a target, it will stay at the hide site until the off-time of the waypoint is reached or until commanded to leave. This simulates the time an SSFU waits in a protected area until it is assigned by its commander to engage a target.</t>
+  </si>
+  <si>
+    <t>If the SSFU does not have weapons, it remains at the hide site until the hide phase time is reached. This simulates the waiting period for a launcher that has just launched a weapon and is getting ready to go to a reload site.</t>
+  </si>
+  <si>
+    <t>If at a deployed user-defined hide site during this phase, the SSFU's susceptibilities are adjusted based on the site's susceptibility parameters. Otherwise, the SSFU's susceptibilities to detection and damage remain unchanged. Subsection 4.7.30 describes the susceptibility adjustments at a hide site.</t>
+  </si>
+  <si>
+    <t>The SSFU message-processing routine receives target assignments from a Ground Attacker Commander or ground-capable Flexible Commander and sends acknowledgments to the commander as to whether the command was executed. If a weapon can be launched, the launch phase is scheduled to execute the launch. If the commanding unit is a Ground Attacker Commander or Flexible Commander then a COMPLETE message is sent after the intercept phase so that a Battle Damage Assessment (BDA) may be performed by an AGAttacker or an Intel Center.</t>
+  </si>
+  <si>
+    <t>The SSFU ruleset can be used only on ground platforms. A communications device and weapons are recommended. Valid weapon types are surface-to-surface weapons, either a ballistic missile or a weapon defined as a captive platform or complex weapon using the AGAttacker ruleset and a specified airframe.  Sensors are not used. The SSFU cannot be a commander, a flight leader, or a wingman.  The SSFU can be commanded by a Ground Attacker Commander or a ground- capable Flexible Commander. Asset lists are not used.</t>
+  </si>
+  <si>
+    <t>A duplex link with message class command to the SSFU's commander is recommended.</t>
+  </si>
+  <si>
+    <t>The Red TEL launches surface-to-surface weapons against scripted targets. These surface-to-surface weapons can either be a ballistic missile or a weapon defined as a captive platform or complex weapon using the AGAttacker ruleset and a specified airframe. The Red TEL launches surface-to-surface weapons at scripted targets, if the targets are within range, and determines the outcome of the engagement.</t>
+  </si>
+  <si>
+    <t>The Red TEL utilizes launch and intercept phases.</t>
+  </si>
+  <si>
+    <t>Platforms using the Red TEL ruleset launch surface-to-surface weapons at a predefined target, if that target is within range. The time of the launch is specified by the user when deploying the Red TEL platform.</t>
+  </si>
+  <si>
+    <t>To introduce randomness into the target position, the Random Targeting option, located on the Launch Phase window may be used. The purpose behind this option is to be able to treat a target as a targeted area as opposed to a single point. If selected, a random target position within the target’s system radius will be computed by EADSIM. If randomness is eliminated, the target position will not be errored.</t>
+  </si>
+  <si>
+    <t>Figure 4.7.10-1</t>
+  </si>
+  <si>
+    <t>During the Red TEL intercept phase, a determination is made as to whether the launched missile succeeded or failed. The determination is identical to that of the SSFU intercept phase. The intercept phase is scheduled after the launched missile has impacted, as determined by flight processing.</t>
+  </si>
+  <si>
+    <t>The Red TEL has no message-processing capability.</t>
+  </si>
+  <si>
+    <t>The Red TEL ruleset can be used only on ground platforms. Sensors and communications devices are not used. Valid weapon types are surface-to-surface weapons, either a ballistic missile or a weapon defined as a captive platform or complex weapon using the AGAttacker ruleset and a specified airframe. The Red TEL uses scripted targets; it does not use assets. The Red TEL cannot be a commander nor have a commander; the Red TEL cannot be a flight leader or a wingman.</t>
+  </si>
+  <si>
+    <t>Establishing networks with the Red TEL is not required as the Red TEL does not have a message-processing capability.</t>
+  </si>
+  <si>
+    <t>4.7.9      Surface-to-Surface Fire Unit (SSFU)</t>
+  </si>
+  <si>
+    <t>4.7.9.1    SSFU Overview</t>
+  </si>
+  <si>
+    <t>4.7.9.2    SSFU Battle Management Phases</t>
+  </si>
+  <si>
+    <t>4.7.9.2.1   SSFU Tactical Operations Phase (Setup Operation)</t>
+  </si>
+  <si>
+    <t>4.7.9.2.2   SSFU Launch Phase</t>
+  </si>
+  <si>
+    <t>If this option is selected the random position is computed based on the following methodology illustrated in Figure 4.7.9-1.</t>
+  </si>
+  <si>
+    <t>For Uniform Distribution, the displacement in the x and y directions are random numbers between +/- the target radius. For Gaussian Distribution, the displacement is calculated by taking a normal distribution with zero mean and given s. The multiplier can be used to create a concentration of aim points at the target center or more evenly spread across the target radius as the multiplier is increased. Random draws will be taken on x and y until:</t>
+  </si>
+  <si>
+    <t>4.7.9.2.3   SSFU Tactical Operations (Tear-Down Operation)</t>
+  </si>
+  <si>
+    <t>4.7.9.2.4   SSFU Intercept Phase</t>
+  </si>
+  <si>
+    <t>4.7.9.2.6   SSFU Hide Phase</t>
+  </si>
+  <si>
+    <t>4.7.9.3    SSFU Received Message Processing</t>
+  </si>
+  <si>
+    <t>4.7.9.4    SSFU System Configuration</t>
+  </si>
+  <si>
+    <t>4.7.9.5    SSFU Network Recommendations</t>
+  </si>
+  <si>
+    <t>4.7.10  Red Transporter Erector Launcher (Red TEL)</t>
+  </si>
+  <si>
+    <t>4.7.10.1                Red TEL Overview</t>
+  </si>
+  <si>
+    <t>4.7.10.2                Red TEL Battle Management Phases</t>
+  </si>
+  <si>
+    <t>4.7.10.2.1           Red TEL Launch Phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If this option is selected the random position is computed based on the following methodology illustrated in Figure 4.7.10-1. </t>
+  </si>
+  <si>
+    <t>4.7.10.2.2               Red TEL Intercept Phase</t>
+  </si>
+  <si>
+    <t>4.7.10.3                    Red TEL Received Message Processing</t>
+  </si>
+  <si>
+    <t>4.7.10.4                    Red TEL System Configuration</t>
+  </si>
+  <si>
+    <t>4.7.10.5                    Red TEL Network Recommendations</t>
+  </si>
+  <si>
+    <t>The Return to Base (RTB) ruleset is a ruleset that aircraft can transition to when returning to base. While operating in the RTB ruleset, aircraft can execute drag maneuvers to avoid enemy attacks. The RTB ruleset, however, does not allow aircraft to return fire, receive commanded assignments, nor engage enemies on its own.</t>
+  </si>
+  <si>
+    <t>The RTB ruleset consists of only a few phases that may be executed while a platform is returning home.</t>
+  </si>
+  <si>
+    <t>If the commander of the flight is a Flexible Commander ruleset and the flight was on a CAP, the commander of the flight attempts to refill the CAP from an airbase if the CAP’s deactivation time has not been reached.</t>
+  </si>
+  <si>
+    <t>The react-to-engage phase is scheduled in response to an engagement against the RTB ruleset. This phase is scheduled at its start time by an attacker entering the engage mode against the RTB platform: i.e., entering an attempt to lock on the platform. The RTB ruleset does not react to being engaged.</t>
+  </si>
+  <si>
+    <t>The react-to lock phase is the reaction of the RTB ruleset to being locked on by an attacker's fire control radar. The RTB ruleset performs a drag maneuver and schedules the drag phase at the completion of the maneuver.</t>
+  </si>
+  <si>
+    <t>The drag phase processing represents the completion of the drag phase. The RTB platform continues executing the drag phase until no more missiles are in the air to the RTB platform. If the platform has survived the encounter, it now resumes its return to base actions.</t>
+  </si>
+  <si>
+    <t>The RTB ruleset receives and sends no messages.</t>
+  </si>
+  <si>
+    <t>Platforms are not configured initially using the RTB ruleset.</t>
+  </si>
+  <si>
+    <t>The Escort ruleset is designed as a fighter escort to the bomber-type rulesets: i.e., Agattacker, Bomber, Fighter-Bomber, and Wild Weasel. The escort is highly centralized to the escorted platform; therefore, the escort has no independent target-selection process. The escort engages only targets assigned by the escorted platforms or as a reaction to being engaged. The Fighter Ruleset is often a  preferred ruleset for modeling of an air-to-air interaction for many “escort” missions.</t>
+  </si>
+  <si>
+    <t>The Escort ruleset uses much of the same processing as the Sweeper ruleset, the major exception being that the escort relies on the escorted platform for target assignments. Therefore, the target selection and engage phases used in the  Sweeper ruleset are not used by the Escort ruleset.</t>
+  </si>
+  <si>
+    <t>The lock phase is entered once a particular target is selected and executed repeatedly until lock on target is achieved. Targets are selected through the  reaction phases. These reaction phases are scheduled either by an attacker engaging the escort or the escorted platform assigning an attacker to the escort.  The first checks are made to determine whether the target is in track. If the target is not in track, the lock phase is rescheduled for the repeat time. The phase repeats until track is achieved or a time-out of 10 sec has elapsed, which allows time for temporary loss of track and attempting to maneuver to regain track. If track is not held and the time-out has been reached, the escort returns to flying its escort position with no phases executing. The escort also goes back to the escort position if track is held but the target has died. The engagement on the current target stops for both cases.</t>
+  </si>
+  <si>
+    <t>If the target is in track, the target is evaluated against the available weapons to determine whether lock can be achieved. For a weapon to be evaluated, the  range to the target must be less than 90% of the maximum weapon's range. The weapon must also be capable against aircraft. A fire-and-forget missile is chosen in preference to a missile with semi-active guidance. Among the weapons that fall into each category, prioritization is based on the best Pk. If both weapons have equal Pks, the weapon with the highest velocity is chosen: i.e., the shortest intercept time to the target.</t>
+  </si>
+  <si>
+    <t>If lock is achieved, the launch phase routine is scheduled for the platform at its start time. This start time includes the reaction time to achieving lock-on-target and the time required for the missile to launch once the pilot pulls the trigger. The react-to-lock phase is also scheduled for the target for its start time.</t>
+  </si>
+  <si>
+    <t>If lock is not achieved, the lock phase will be rescheduled for its repeat time.</t>
+  </si>
+  <si>
+    <t>The launch phase evaluates whether the actual missile launch occurs. If the platform no longer has track on the target, the escort schedules the lock phase to attempt to regain lock on the target. If the target is dead and in track, the engagement stops and the escort returns to the flight.</t>
+  </si>
+  <si>
+    <t>If track is still held and the target is still alive, the intercept time for the engagement is computed. This intercept time is computed based on the target continuing to fly at a constant velocity along its current velocity vector. If the range from the escort to the computed intercept point is within the range of the selected weapon, the weapon is launched; otherwise, the launch phase is rescheduled for its repeat time. If the weapon is to be launched, the current position of the escort is stored: i.e. the position from which the weapon started. The intercept phase is scheduled for the computed intercept time. If the launched weapon was a fire-and- forget missile, the escort does not have to maintain track on the target. If the escort is out of weapons, it transitions to the RTB ruleset to return home. If it still has weapons, it returns to its flight and wait for its next engagement.</t>
+  </si>
+  <si>
+    <t>The intercept phase evaluates the results of the engagement. Several straightforward criteria are evaluated at the beginning of the phase. If the  intercept was canceled, the engagement attempt is logged as a failure. If the weapon has semi-active guidance and the escort is dead, the engagement attempt also is logged as a failure. In both cases, the event stream ends for the ruleset. If  the target has died, the engagement is logged as a failure from death of the target and the escort returns to the flight.</t>
+  </si>
+  <si>
+    <t>The intercept phase completion is reevaluated until the range from the launch position of the missile to the target is less than the range that the missile could have flown. The current position of the target is extrapolated to current simulation time to prevent problems with the granularity of state updates from flight processing. The range that the missile could have flown is computed by multiplying the time since launch of the missile by the weapon's average velocity. Once the missile range exceeds the range to the target, the engagement is judged to be over.</t>
+  </si>
+  <si>
+    <t>If the missile's range is less than the target's range, the intercept time is re- evaluated. The missile's current position is determined to be along a vector from   the launch position to the current target's position. The distance of the missile from its launch position is the already computed maximum distance that the missile could have flown. The time required for the missile to complete the intercept is reevaluated using the same assumptions as the initial computation, except for computed current missile position and target position. If the computed intercept time is beyond the maximum lethal range of the weapon, as computed using the average velocity, the intercept phase is rescheduled for intercept at the lethal range. The intercept phase, otherwise, is rescheduled for the computed intercept time.</t>
+  </si>
+  <si>
+    <t>This phase, which is very similar to the engagement reaction phase for the Fighter ruleset, is scheduled at its start time by an attacker entering the engage mode against the target: i.e., entering an attempt to lock on the target. This phase is scheduled also by the escorted rulesets—i.e., Bomber, Fighter-Bomber, or Wild Weasel—when the escort is to react to an engagement against the escorted platforms. The first check is to determine whether a reaction is performed. Two user-specified probabilities affect the decision to react. The first probability is when the escort has track information on the attacker. The additional knowledge of threats in the area would lead to a higher probability of the escort pilot recognizing a need to react to an attacker entering the lock phase against him. If the escort  does not have track on the attacker, a lower probability should be entered to reflect a lessened situation awareness. If recognition of a need to react is negative, the react-to-engage phase is not rescheduled and no further actions are taken. If randomness is eliminated, the escort will always react.</t>
+  </si>
+  <si>
+    <t>If the reaction draw is positive, some decision-making is performed. If the escort is already engaged on the attacker or has a fire-and-forget missile in the air to the attacker, no reaction is performed. If the escort is already engaged on  another target but lock has not been achieved, the ruleset breaks off the engagement. If lock had been achieved on the target, this phase is rescheduled for its repeat time to allow a reaction once the current engagement is completed.</t>
+  </si>
+  <si>
+    <t>If the escort is not engaged on another target or is able to break off its  current engagement, the escort immediately attacks the attacker. The lock phase is scheduled for its start time.</t>
+  </si>
+  <si>
+    <t>The react-to-lock phase is the reaction of the Escort ruleset to being locked on by an attacker's fire control radar. A determination is made whether to react. The user-supplied hero time is used. If the escort has had a missile in flight to the  target for at least the hero time, the escort will not react. If a reaction is taken and the escort is currently engaging another target, that engagement is terminated. If the attacker is currently being engaged, the success of the engagement is determined by the intercept phase, although the execution of the drag maneuver greatly decreases any chance of the target still being in the FOV of the escort's sensor. The drag maneuver phase then is scheduled for the fighter at its start time.</t>
+  </si>
+  <si>
+    <t>The drag-phase processing represents the completion of the drag phase. If track is currently held on the attacker, the escort immediately goes after the threat by scheduling the lock phase for the current time. If track is currently not held, the lock phase is scheduled for the attacker at its start time. The Escort continues executing the drag phase until no more missiles are in the air to the Escort.</t>
+  </si>
+  <si>
+    <t>The Escort ruleset utilizes the User Rules phase, which allows event-based management of the platform. The User Rules phase is described in Section 4.12.</t>
+  </si>
+  <si>
+    <t>Communications for the Escort ruleset are not explicitly modeled. The only coordination with other platforms comes through the reaction phases of the escorted platforms. A bomber, fighter-bomber, or Wild Weasel causes a  non-bomber wingman or subordinate to react to an engagement against the escorted platform. This coordination is performed through the react-to-engage phases of the non- bomber wingmen and subordinates and requires no messages to be sent or received.</t>
+  </si>
+  <si>
+    <t>The Escort ruleset can be used only on aircraft. Sensors and weapons are required. Valid weapon types are air-to-air, towed decoy and anti-weapons. Communications devices are not used. An Escort cannot be a commander or have one. An Escort can be a wingman to a bomber, fighter-bomber, or Wild Weasel. Escorts cannot be flight leaders, and they do not use the target or asset lists.</t>
+  </si>
+  <si>
+    <t>There are no requirements for networks, since the Escort does not have a message-processing capability.</t>
+  </si>
+  <si>
+    <t>The Was Bomber ruleset represents the capability of the AGAttacker, Fighter-Bomber, or Wild Weasel to act as an air-to-air combatant after  transitioning from a bombing mission. The AGAttacker, Fighter-Bomber, and Wild Weasel rulesets can transition to the Was Bomber ruleset during a reaction to being engaged or at the completion of a drag maneuver.</t>
+  </si>
+  <si>
+    <t>The lock, launch, intercept, and reaction phases of the Was Bomber are similar to the Escort battle management phases. However, the Was Bomber ruleset uses the target-select phase of the platform's mission ruleset. This allows these platforms to transition to Was Bomber to engage an air attacker and then transition back to their original rulesets to continue on their missions. While the platform is executing the Was Bomber ruleset, they jettison ordnance specified in the react-to- lock and react-to-engage phases of their mission rulesets.</t>
+  </si>
+  <si>
+    <t>The Was Bomber executes its mission ruleset target-select phase. The target-select phase allows the Was Bomber to transition back to the mission ruleset if the platform still has capable weapons. If the platform does not have weapons to continue its mission, the target-select phase schedules the platform to return to base.</t>
+  </si>
+  <si>
+    <t>The lock phase is entered once a particular target is selected and is executed repeatedly until lock-on-target is achieved. Targets are selected through the reaction phases. These reaction phases are scheduled by the attacker engaging the platform, resulting in a transition to the Was Bomber ruleset.</t>
+  </si>
+  <si>
+    <t>If the target is not in track, the lock phase is rescheduled for the repeat time. The phase repeats until track is achieved or a timeout of 10 sec has elapsed, which allows time for temporary loss of track and attempting to maneuver to regain track. If track is not held and the timeout has been reached, the Was Bomber reschedules its target-select phase. The Was Bomber also reschedules its target-select phase if track is held but the target has died. The engagement on the current target stops for both cases, and the target-select phase is scheduled for its start time.</t>
+  </si>
+  <si>
+    <t>If the target is in track, the target is evaluated against the available weapons to determine whether lock can be achieved. For a weapon to be evaluated, the   range to the target must be less than 90% of the maximum weapon's range. The weapon must also be capable against aircraft. A fire-and-forget missile is chosen in preference to a missile with semi-active guidance. Among the weapons that fall into each category, prioritization is based on best Pk. If both weapons have equal Pk’s, the weapon with the highest velocity: i.e., the shortest intercept time to the target, is chosen.</t>
+  </si>
+  <si>
+    <t>If lock is achieved, the launch phase is scheduled for the platform at its start time. This start time includes the reaction time to achieving lock-on-target and the time required for the missile to launch once the pilot pulls the trigger. The react-to- lock phase is scheduled for the target at its start time. If lock is not achieved, the lock phase is rescheduled at its repeat time.</t>
+  </si>
+  <si>
+    <t>The launch phase evaluates whether the actual missile launch occurs. If the platform no longer has track on the target, the Was Bomber schedules the lock phase to attempt to regain lock on the target. If the target is dead and in track, the engagement stops; and the target-select phase is rescheduled at its start time.</t>
+  </si>
+  <si>
+    <t>If track is still held and the target is still alive, the intercept time for the engagement is computed. This intercept time is computed based on the target continuing to fly at a constant velocity along its current velocity vector. If the range from the platform to the computed intercept point is within the range of the selected weapon, the weapon is launched; otherwise, the launch phase is rescheduled for its repeat time.</t>
+  </si>
+  <si>
+    <t>If the weapon is to be launched, the current position of the platform is stored: i.e., the position from which the weapon started. The intercept phase is scheduled for the computed intercept time. If the launched weapon is a fire-and-forget missile, the platform does not have to maintain track on the target.  If it is out of weapons,  it transitions to the RTB ruleset. If it still has weapons, it reschedules its target- select phase.</t>
+  </si>
+  <si>
+    <t>The intercept phase evaluates the results of the engagement. If the intercept was canceled, the engagement is logged as a failure. If the weapon has semi-active guidance and the Was Bomber is dead, the engagement is also logged as a failure. In both cases, the event stream ends for the ruleset. If the target has died, the engagement is logged as a failure from death of the target and the target-select phase is rescheduled for the Was Bomber.</t>
+  </si>
+  <si>
+    <t>The completion of the intercept phase is reevaluated until the range from the launch position of the missile to the target is less than the range that the missile could have flown. The current position of the target is extrapolated to current simulation time to prevent problems with the granularity of state updates from flight processing. The range that the missile could have flown is computed by multiplying the time since launch of the missile by the weapon's average velocity. Once the missile range exceeds the range to the target, the engagement is judged to be over.</t>
+  </si>
+  <si>
+    <t>If the missile's range is less than the target's range, the intercept time is re- evaluated. The missile's current position is determined to be along a vector from  the launch position to the current target's position. The distance of the missile from its launch position is the already computed maximum distance that the missile could have flown. The time required for the missile to complete the intercept is reevaluated using the same assumptions as the initial computation, except for computed current missile position and target position. If the computed intercept time is beyond the maximum lethal range of the weapon, as computed using the average velocity, the intercept phase is rescheduled for intercept at the lethal range. The intercept phase otherwise is rescheduled for the computed intercept time.</t>
+  </si>
+  <si>
+    <t>If the engagement is over and missile range is still not greater than the range to the target, the intercept is judged a failure from the drag maneuver of the target. If the missile range exceeds the range from launch to the target, the outcome of the engagement is evaluated as described in Subsection 4.7.11.6.5. If the engagement is a success, the target is logged as a success.</t>
+  </si>
+  <si>
+    <t>If the weapon launched is a fire-and-forget weapon, the Was Bomber has no further processing in this phase. The target-select phase has already been scheduled for the ruleset.</t>
+  </si>
+  <si>
+    <t>If a semi-active weapon is fired, the platform may now be out of weapons. If  it is out of weapons, the Was Bomber transitions to RTB. If it still has air-to-air weapons and the target is still alive, the Was Bomber reschedules its lock phase to engage the target again. If the platform does not have air-to-air weapons, its target-select phase is scheduled. The target select phase determines whether the platform has weapons to continue its mission or if it must return to base. If the engagement is a success, the ruleset schedules its target-select phase to continue its mission.</t>
+  </si>
+  <si>
+    <t>The react-to-engage phase is scheduled at its start time by an attacker entering the engage mode against the Was Bomber. The Was Bomber first determines whether it will react to the engagement. Two  user-specified probabilities affect the decision to react. The first probability is when the platform has track information on the attacker. The additional knowledge of threats in the area leads to a higher probability of the Was Bomber pilot recognizing a need to react to an attacker entering the lock phase against him. If the platform does not have track on the attacker, a lower probability should be entered to reflect a lessened situation awareness. If recognition of a need to react is negative, the react- to-engage phase is not rescheduled and no further actions are taken.</t>
+  </si>
+  <si>
+    <t>If the reaction draw is positive, the status of the Was Bomber is checked. If randomness is eliminated, the Was Bomber will always react. If the Was Bomber is already engaged on the attacker or has a fire-and-forget missile in the air to the attacker, no reaction is performed. If the Was Bomber is already engaged on another target but lock has not been achieved, the Was Bomber breaks off the engagement. If lock has been achieved on the target, this phase is rescheduled for its repeat time to allow the Was Bomber to react when the current engagement is completed.</t>
+  </si>
+  <si>
+    <t>If the Was Bomber is not engaged on another target or was able to break off the current engagement, the Was Bomber jettisons any ordnance specified in either its original mission ruleset. The Was Bomber lock phase is scheduled at its start time.</t>
+  </si>
+  <si>
+    <t>The react-to-lock phase is the reaction of the ruleset to being locked on by an attacker's fire control radar. A determination is made whether a reaction will occur. The user-specified hero time is used. If the platform has had a missile in flight to the target for at least the hero time, the Was Bomber does not react.</t>
+  </si>
+  <si>
+    <t>If the Was Bomber decides to react and it is currently engaging another target, that engagement is terminated. If the attacker is currently being engaged, the success of the engagement is determined by the intercept phase; however, the execution of the drag maneuver greatly decreases any chance of the target still being in the FOV of the platform's sensor. The Was Bomber jettisons ordnance specified by its Fighter-Bomber or Wild Weasel ruleset and schedules the drag phase at its start time. The Was Bomber continues executing the drag phase until no more missiles are in the air to the Was Bomber.</t>
+  </si>
+  <si>
+    <t>The drag-phase processing represents the completion of the drag phase. If track is currently held on the attacker and the Was Bomber still has air-to-air weapons, the Was Bomber immediately goes after the threat by scheduling the lock phase for the current time. If track is currently not held, the lock phase is  scheduled for the attacker at its start time. If the Was Bomber has no air-to-air weapons, its target-select phase is scheduled to determine whether the platform can continue its mission or if it must return to base.</t>
+  </si>
+  <si>
+    <t>Communications for the Was Bomber ruleset are not explicitly modeled.</t>
+  </si>
+  <si>
+    <t>Platforms are not configured initially using the Was Bomber ruleset; however, the user can specify the timing for each of the Was Bomber phases.</t>
+  </si>
+  <si>
+    <t>The function of a platform using the Air Warning and Control System (AWACS) ruleset is to use its sensor to gather track information. This information is then forwarded to other platforms. The AWACS ruleset does not represent any  C2 capabilities; therefore, it is simply a source of track data.</t>
+  </si>
+  <si>
+    <t>The AWACS has no battle management phases. The track information gathered by AWACS is forwarded as discussed in Subsection 4.6.</t>
+  </si>
+  <si>
+    <t>Platforms using the AWACS ruleset have no message-processing routines.</t>
+  </si>
+  <si>
+    <t>The AWACS ruleset can be used on either a ground or air platform. A sensor and a communications device are required. Weapons are not used. AWACS platforms can neither have commanders nor be commanders. They do not use targets or assets and they cannot be flight leaders or wingmen.</t>
+  </si>
+  <si>
+    <t>The recommended network type for AWACS platforms is simplex or broadcast network types, which support outgoing track messages only. Track recipients should be on the net with the AWACS.</t>
+  </si>
+  <si>
+    <t>The Ground Support Module (GSM) ruleset is currently set up to receive and delay track messages being forwarded.</t>
+  </si>
+  <si>
+    <t>The GSM ruleset utilizes no battle management phases. It delays the forwarded messages within its message-processing routine.</t>
+  </si>
+  <si>
+    <t>The GSM message-processing routine receives and delays track messages.</t>
+  </si>
+  <si>
+    <t>All other messages are ignored.</t>
+  </si>
+  <si>
+    <t>The GSM ruleset can be used only for ground platforms. A communications device is required; sensors and weapons are not used. Platforms using the GSM ruleset cannot be commanders, flight leaders, or wingmen, and they cannot be commanded. Targets and assets are not used.</t>
+  </si>
+  <si>
+    <t>The GSM platform requires a link from the platform sending the message to be delayed and a link to the platform receiving the delayed message.</t>
+  </si>
+  <si>
+    <t>4.7.8.5  Btry Network Restrictions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The return to base phase is scheduled after a flight leader evaluates its RTB trigger events and one of the events is satisfied. It is scheduled to execute when the associated RTB response delay expires. The purpose of this phase is to determine whether or not a flight is ready to return to base and if so, schedule the associated RTB response. There are two possible RTB responses: return to base and land or return home and adopt a CAP. If returning to base, the flight leader will continue   to execute this phase once every scenario interval until the decision has been reached that the flight can return home. </t>
+  </si>
+  <si>
+    <t>If the flight is supposed to adopt an RTB ruleset, the flight cannot return to base until all members have completed their current engagements, i.e., are operating in their target select or vector phases. When the flight is ready to return to base, the flight is marked RTB in the commander’s subordinate list to prevent further assignments. After the flight is marked RTB, each flight member will transition to an RTB ruleset if one is specified. On the other hand, if the flight has been triggered to return home and adopt a CAP, the flight leader will execute this phase once to carry out the RTB response.</t>
+  </si>
+  <si>
+    <t>The Delay ruleset is used for platforms whose full functions in the command chain are not modeled. Generally, the Delay ruleset allows for the receipt of a message/assignment from a commander and the forwarding of that message to a subordinate. All of the rulesets that delay messages must be used carefully when large numbers of messages are to be delayed. The message-delay mechanism causes fragmentation of memory, resulting in long runtimes and a potential for the run not to be complete.</t>
+  </si>
+  <si>
+    <t>The Delay ruleset utilizes no battle management phases.</t>
+  </si>
+  <si>
+    <t>The message-processing routine for the Delay ruleset processes all messages. The routine delays the message if a delay has been specified and then forwards the message after the delay.</t>
+  </si>
+  <si>
+    <t>The Delay ruleset can be used on ground platforms. A  communications device is required; sensors and weapons are not used. Platforms using the Delay ruleset cannot be commanders, flight leaders, or wingmen, and they cannot be commanded. Targets and assets are not used.</t>
+  </si>
+  <si>
+    <t>Platforms using the Delay ruleset should be linked to the platforms sending the information and the platforms receiving the message after the delay.</t>
+  </si>
+  <si>
+    <t>The Generic ruleset is a structure used specifically for targets. This ruleset was created because every platform must have a ruleset. The Generic ruleset has  no phases, no track file, and no message processing.</t>
+  </si>
+  <si>
+    <t>The Generic ruleset can be used on aircraft or ground systems. Weapons, sensors, and communications devices are not used. Generic platforms cannot be commanders, flight leaders, or wingmen. They cannot have commanders. Targets and assets are not used.</t>
+  </si>
+  <si>
+    <t>The Generic ruleset has no message-processing capability; therefore, there are no network recommendations for this ruleset.</t>
+  </si>
+  <si>
+    <t>The NOCMD ruleset, which is set up for stand-alone platforms, has no phases and no track file. Its processing occurs in its message-processing routine, which does not process command messages but only surveillance messages. Since there is no track file, no processing is performed. The ruleset's functionality is basically the same as the Generic ruleset. The NOCMD ruleset should not be used.</t>
+  </si>
+  <si>
+    <t>The NOCMD ruleset utilizes no battle management phases.</t>
+  </si>
+  <si>
+    <t>The NOCMD message-processing routine processes only track messages; it does not process command messages.</t>
+  </si>
+  <si>
+    <t>The NOCMD ruleset can be used only on ground platforms. A communications device is required; sensors and weapons are not used. Platforms using the NOCMD ruleset cannot be commanders, flight leaders, wingmen, and they cannot be commanded. Targets and assets are not used.</t>
+  </si>
+  <si>
+    <t>The functionality of this ruleset requires no networks.</t>
+  </si>
+  <si>
+    <t>The SAM Launcher ruleset models remoted launcher sites for the Flexible SAM ruleset. The Flexible SAM ruleset can be used in combination with the SAM Launcher ruleset to model launches from remoted sites, while maintaining the capability to have co-located launchers.</t>
+  </si>
+  <si>
+    <t>The Flexible SAM performs target selection. During the weapon selection process, the Flexible SAM ruleset determines which of its launchers has the shortest intercept time to the target and assigns that launcher to the target. The Flexible SAM sends the assignment command to the launcher during the Flexible SAM launch phase, and the SAM launcher receives the assignment and launches the weapon. The Flexible SAM then evaluates the intercept outcome.</t>
+  </si>
+  <si>
+    <t>The SAM Launcher has three battle management phases: launch phase, reload phase, and User Rules phase. The launch phase is activated upon receipt of an assignment command from the Flexible SAM. The reload phase is identical to Flexible SAM reload phase. The User Rules phase is executed in response to a user- defined set of triggers.</t>
+  </si>
+  <si>
+    <t>The scheduling of the launch phase takes into account both the start time of the launch phase, representing the minimum time from receipt of the launch command from the Flexible SAM, and the minimum interval between launches. If the launch phase is not currently scheduled when a launch command is received, the launch phase is scheduled at the maximum of the start time of the phase and the minimum interval since the last launch. Once the phase executes, the next launch record is evaluated. If another launch record is waiting, the phase is scheduled for this launch at the maximum of the start time from the time the command was received and the minimum interval to the latest launch.</t>
+  </si>
+  <si>
+    <t>The SAM Launcher launch phase is scheduled for its start time upon receipt of an assignment command from the Flexible SAM. When the Flexible SAM sends the command to the SAM launcher, the Flexible SAM remains in lock on the target. Upon receipt of the assignment command, the SAM launcher performs the engage action on the target.</t>
+  </si>
+  <si>
+    <t>When the Flexible SAM intercept phase executes, the engagement outcome is evaluated. The result of the engagement is logged to the SAM launcher, and the Flexible SAM performs the normal action. The Flexible SAM continues in target selection or other engagements.</t>
+  </si>
+  <si>
+    <t>The SAM Launcher Reload phase is identical to the Flexible SAM reload</t>
+  </si>
+  <si>
+    <t>phase.</t>
+  </si>
+  <si>
+    <t>The SAM Launcher can execute the User Rules phase in response to the events including death of its commander, or the loss or regaining of its commander through communications checks. The User Rules phase provides several responses, including the selection of an alternate commander. The use of User Rules is described in Section 4.12.</t>
+  </si>
+  <si>
+    <t>The SAM Launcher receives two types of command messages from the Flexible SAM: assignment commands and stop commands.  The SAM Launcher  also can receive communications checks from either a SAM LCS or Flexible SAM.</t>
+  </si>
+  <si>
+    <t>The launcher can also receive a stop command from the Flexible SAM. If the launcher has already launched, the launch is evaluated as a failure. If the launcher has not yet launched, a Stop Dead Target action is performed. This is the only condition under which a stop command would be sent.</t>
+  </si>
+  <si>
+    <t>The SAM Launcher can receive communications checks from its commander, who can operate with either the SAM LCS or Flexible SAM ruleset. If a SAM Launcher loses communications with its commander, it can execute its User Rules phase to select an alternate commander.</t>
+  </si>
+  <si>
+    <t>The SAM Launcher must have surface-to-air weapons and a communications device if the propagation model is used. The SAM Launcher does not use sensors.</t>
+  </si>
+  <si>
+    <t>The SAM Launcher must be commanded by a Flexible SAM or a SAM LCS ruleset; it cannot function independently. The SAM Launcher cannot have subordinates.</t>
+  </si>
+  <si>
+    <t>The SAM Launcher must be linked to its commanding Flexible SAM. The code requires this link to function properly and, if the link does not exist, the Flexible SAM may have some unfinished engagements. The net should be of command type only.</t>
+  </si>
+  <si>
+    <t>The Surface-to-Surface Missile (SSM) Commander ruleset is used to model various C2 nodes associated with the counterforce command chain. The ruleset receives intelligence information from intelligence centers; border crossing  authority from CTOC rulesets; and track, command, and acknowledgment messages from other SSM Commander rulesets within the command chain. Track and assignment messages are generated and sent to subordinate units. The Ground Attacker Commander is recommended instead of the SSM Commander.</t>
+  </si>
+  <si>
+    <t>The SSM Commander uses a target-select phase, which prioritizes commanded assignments and track information. The prioritization is commanded- assigned targets sorted by priority, and then track information sorted by perishability time. The SSM Commander limits the number of  targets  and/or tracks it will process in one target-select phase to the user-defined maximum tracks/targets assessed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SSM Commander assigns targets to the available subordinate that can launch soonest against the target. If multiple subordinates are available to launch now, the closest subordinate is selected. The SSM Commander checks track messages to determine whether the system type being tracked is on its systems-to- target list. The systems to target list can be specified as target systems or target classes. A target is determined to be on the systems to target list by the following two-step process. </t>
+  </si>
+  <si>
+    <t>The lookup consists of checking the target system type or NCTR determination of target, and default or true class of the target. If using perceived information, the classification (which can be a weapon, system, or class) resulting from the NCTR process will be checked to determine if it matches an entry on the system of interest list. If the NCTR ID does not match, a second check of the list is performed using the default category of the target (default TM, default CM, default ABT, and default GND). If using truth information, the true system of the target will be checked to determine if it is on the list; and if it is not, the true class is next checked. If it is, the commander will assign it as a target. If the track system type  is not in the systems-to-target list, the track is passed to all the commander's subordinate commanders that have the track in their AORs.</t>
+  </si>
+  <si>
+    <t>The SSM Commander performs battle management and interacts with other rulesets through messages. This subsection discusses the messages processed by  the SSM Commander.</t>
+  </si>
+  <si>
+    <t>There are two types of message delays in the SSM Commander ruleset. The track message delay is used to account for the time spent determining whether a particular track is a target plus the time spent determining which subordinate should receive the commanded assignment or track.</t>
+  </si>
+  <si>
+    <t>The command message delay is used to account for the time spent determining which subordinate should receive a commanded assignment that was originated by a platform’s superior.</t>
+  </si>
+  <si>
+    <t>This message is sent when a SSM Commander either does not have target assignment authority or has a track in his trackfile that is not on his systems-of interest list.</t>
+  </si>
+  <si>
+    <t>This message is only sent to subordinate SSM Commanders. It is sent down the command chain to allow each level to change the weapon state.</t>
+  </si>
+  <si>
+    <t>This message is sent when an SSM Commander has processed a track and sends it to his subordinate as a target. This message is sent to a subordinate with the target in its AOR if the subordinate is an SSM Commander, or to a subordinate that has the target within weapons range if the subordinate is an SS FU. The message is sent to the subordinate closest to the target.</t>
+  </si>
+  <si>
+    <t>This message is sent to commanders to indicate that an assignment  command was received. A CANTCO is sent to the SSM Commander when it is determined that a target assignment could not be completed. This message is sent up the command chain to the SSM Commander that identified the target.</t>
+  </si>
+  <si>
+    <t>A WILCO acknowledgment is sent when a launch can be completed. This message is sent up the command chain to the SSM Commander that identified the target.</t>
+  </si>
+  <si>
+    <t>This message is received from an intelligence center or another SSM Commander. When a commander with target assignment authority receives this type of message, it checks its systems-of-interest list to determine whether the track is a target. If the track is a target, the commander sends an assignment.</t>
+  </si>
+  <si>
+    <t>When a commander does not have target assignment authority or the track was not identified as a target, the commander sends the track data to subordinate commanders if the track is in their AOR.</t>
+  </si>
+  <si>
+    <t>This message is received from either a CTOC or SSM Commander ruleset and causes the weapon status for this commander to transition from "On Hold" to "Ready."</t>
+  </si>
+  <si>
+    <t>This message is received for tracks that have already been designated as a target. When a commander receives this type of message, it assigns one of his subordinates this track as an assignment or a launch command if the subordinate is a SSM Commander or an SS FU, respectively.</t>
+  </si>
+  <si>
+    <t>This message is received in response to a previously sent assignment message. Three types of acknowledgment messages can be received: 1) A received command message is received from a subordinate acknowledging receipt of a commanded assignment, 2) A CANTCO is received from a subordinate that has determined it cannot execute a commanded assignment, and 3) A WILCO is received from a subordinate that will complete a commanded assignment.</t>
+  </si>
+  <si>
+    <t>When the SSM Commander sends a command message, it contains the number of the track entry on the target. The receiving platform then attempts to find the commanded track number in its track file. If the track number is  not found, the receiving platform sends an update request message back to the SSM Commander for that track number. Upon receipt of the request message, the SSM Commander generates a commanded track update message that contains the track data for the target. The commanded track update also contains all the information of the previous command message, which will then be processed by the receiving platform after the track information has been processed.</t>
+  </si>
+  <si>
+    <t>The SSM Commander ruleset requires a communications device. Sensors are optional, and weapons are not used. The SSM Commander can be the commander  of a platform using the SSM Commander or SS FU ruleset and can be commanded only by another SSM Commander ruleset.</t>
+  </si>
+  <si>
+    <t>A simplex link from the CTOC with message class command should be used. Simplex links from Intel CAC with message classes intelligence and track, provide the track information. Duplex links are recommended between the SSM Commander(s) and the SS FUs in the command chain, with message classes, track and command, between commanders and command between commanders and FUs.</t>
+  </si>
+  <si>
+    <t>4.7.9.2.5    SSFU Reload Phase</t>
+  </si>
+  <si>
+    <t>4.7.16   Return-To-Base (RTB) Ruleset</t>
+  </si>
+  <si>
+    <t>4.7.16.1                    RTB Overview</t>
+  </si>
+  <si>
+    <t>4.7.16.2                    RTB Battle Management Phases</t>
+  </si>
+  <si>
+    <t>4.7.16.2.1           RTB Phase</t>
+  </si>
+  <si>
+    <t>4.7.16.2.2           RTB React-to-Engage Phase</t>
+  </si>
+  <si>
+    <t>4.7.16.2.3           RTB React-to-Lock Phase</t>
+  </si>
+  <si>
+    <t>4.7.16.2.4           RTB Drag Maneuver Phase</t>
+  </si>
+  <si>
+    <t>4.7.16.3                    RTB Received-Message Processing</t>
+  </si>
+  <si>
+    <t>4.7.16.4                RTB System Configuration</t>
+  </si>
+  <si>
+    <t>4.7.17   Escort Ruleset</t>
+  </si>
+  <si>
+    <t>4.7.17.1                    Escort Overview</t>
+  </si>
+  <si>
+    <t>4.7.17.2                    Escort Battle Management Phases</t>
+  </si>
+  <si>
+    <t>4.7.17.2.1           Escort Lock Phase</t>
+  </si>
+  <si>
+    <t>4.7.17.2.2           Escort Launch Phase</t>
+  </si>
+  <si>
+    <t>4.7.17.2.3           Escort Intercept Phase</t>
+  </si>
+  <si>
+    <t>If the engagement is over and missile range is still not greater than the range to the target, the intercept is judged a failure from the drag maneuver of the target. If the missile range exceeds the range from launch to the target, the outcome of the engagement is evaluated, as described in Subsection 4.7.11.6.5. If it is a success,  the target is logged as a success. If the weapon was a fire-and-forget weapon, the escort has no further processing to perform in this phase. The escort will have already returned to the flight and be either waiting for a new target or engaging a new target. If a semi-active weapon was fired, the escort may now be out of weapons. If it is out of weapons, the escort transitions to RTB and goes home. If it still has weapons, the escort reschedules its engage phase and goes after the target again. If the engagement was a success, the escort returns to the flight.</t>
+  </si>
+  <si>
+    <t>4.7.17.2.4           Escort React to Engage Phase</t>
+  </si>
+  <si>
+    <t>4.7.17.2.5           Escort React-to Lock Phase</t>
+  </si>
+  <si>
+    <t>4.7.17.2.6           Escort Drag Maneuver Phase</t>
+  </si>
+  <si>
+    <t>4.7.17.2.7           Escort User Rules Phase</t>
+  </si>
+  <si>
+    <t>4.7.17.3                    Escort Received-Message Processing</t>
+  </si>
+  <si>
+    <t>4.7.17.4                    Escort System Configuration</t>
+  </si>
+  <si>
+    <t>4.7.17.5                    Escort Network Recommendations</t>
+  </si>
+  <si>
+    <t>4.7.18    Was Bomber Ruleset</t>
+  </si>
+  <si>
+    <t>4.7.18.1                    Was Bomber Overview</t>
+  </si>
+  <si>
+    <t>4.7.18.2                    Was Bomber Battle Management Phases</t>
+  </si>
+  <si>
+    <t>4.7.18.2.1           Was Bomber Target-Select Phase</t>
+  </si>
+  <si>
+    <t>4.7.18.2.2           Was Bomber Lock Phase</t>
+  </si>
+  <si>
+    <t>4.7.18.2.3           Was Bomber Launch Phase</t>
+  </si>
+  <si>
+    <t>4.7.18.2.4           Was Bomber Intercept Phase</t>
+  </si>
+  <si>
+    <t>4.7.18.2.5           Was Bomber React-to-Engage Phase</t>
+  </si>
+  <si>
+    <t>4.7.18.2.6           Was Bomber React-to-Lock Phase</t>
+  </si>
+  <si>
+    <t>4.7.18.2.7           Was Bomber Drag Maneuver Phase</t>
+  </si>
+  <si>
+    <t>4.7.18.3                    Was Bomber Received-Message Processing</t>
+  </si>
+  <si>
+    <t>4.7.18.4                    Was Bomber System Configuration</t>
+  </si>
+  <si>
+    <t>4.7.19    Air Warning and Control System (AWACS)</t>
+  </si>
+  <si>
+    <t>4.7.19.1                    AWACS Overview</t>
+  </si>
+  <si>
+    <t>4.7.19.2                    AWACS Battle Management Phases</t>
+  </si>
+  <si>
+    <t>4.7.19.3                    AWACS Received-Message Processing</t>
+  </si>
+  <si>
+    <t>4.7.19.4                    AWACS Systems Configuration</t>
+  </si>
+  <si>
+    <t>4.7.19.5                    AWACS Network Recommendations</t>
+  </si>
+  <si>
+    <t>4.7.20   Ground Support Module (GSM)</t>
+  </si>
+  <si>
+    <t>4.7.20.1                  GSM Overview</t>
+  </si>
+  <si>
+    <t>4.7.20.2                    GSM Battle Management Phases</t>
+  </si>
+  <si>
+    <t>4.7.20.3                    GSM Received-Message Processing</t>
+  </si>
+  <si>
+    <t>4.7.20.5                    GSM Network Recommendations</t>
+  </si>
+  <si>
+    <t>4.7.22   Delay Ruleset</t>
+  </si>
+  <si>
+    <t>4.7.22.2                    Delay Battle Management Phases</t>
+  </si>
+  <si>
+    <t>4.7.22.3                    Delay Received-Message Processing</t>
+  </si>
+  <si>
+    <t>4.7.22.4                    Delay System Configuration</t>
+  </si>
+  <si>
+    <t>4.7.22.5                    Delay Network Recommendations</t>
+  </si>
+  <si>
+    <t>4.7.23   Generic Ruleset</t>
+  </si>
+  <si>
+    <t>4.7.24   No Command (NOCMD) Ruleset</t>
+  </si>
+  <si>
+    <t>4.7.24.1                    NOCMD Overview</t>
+  </si>
+  <si>
+    <t>4.7.24.2                    NOCMD Battle Management Phases</t>
+  </si>
+  <si>
+    <t>4.7.24.4                    NOCMD System Configuration</t>
+  </si>
+  <si>
+    <t>4.7.24.5                    NOCMD Network Restrictions</t>
+  </si>
+  <si>
+    <t>4.7.25   SAM Launcher</t>
+  </si>
+  <si>
+    <t>4.7.25.1                    SAM Launcher Overview</t>
+  </si>
+  <si>
+    <t>4.7.25.2                    SAM Launcher Battle Management Phases</t>
+  </si>
+  <si>
+    <t>4.7.25.2.1           SAM Launcher Launch Phase</t>
+  </si>
+  <si>
+    <t>During the SAM launcher launch phase, the intercept time is recomputed. The SAM Launcher performs the launch action against the target, and the Flexible SAM intercept phase is scheduled to execute at the intercept time. If the SAM launcher’s weapons are depleted to a level that requires reloading and weapons are available for reload, the SAM launcher reloads.</t>
+  </si>
+  <si>
+    <t>4.7.25.2.2           SAM Launcher Reload Phase</t>
+  </si>
+  <si>
+    <t>4.7.25.2.3           SAM Launcher User Rules Phase</t>
+  </si>
+  <si>
+    <t>4.7.25.3                    SAM Launcher Received Message Processing</t>
+  </si>
+  <si>
+    <t>4.7.25.3.1           SAM Launcher Assignment Command</t>
+  </si>
+  <si>
+    <t>When an assignment message is received, the SAM launcher performs the Engage action; and the SAM Launcher’s launch phase is examined for possible scheduling as described in Section 4.7.25.2.1.</t>
+  </si>
+  <si>
+    <t>4.7.25.3.2           SAM Launcher Stop Command</t>
+  </si>
+  <si>
+    <t>4.7.25.3.3           SAM Launcher Communications Check</t>
+  </si>
+  <si>
+    <t>4.7.25.4                    SAM Launcher System Configuration</t>
+  </si>
+  <si>
+    <t>4.7.25.5                    SAM Launcher Network Recommendations</t>
+  </si>
+  <si>
+    <t>4.7.26   SSM Commander</t>
+  </si>
+  <si>
+    <t>4.7.26.1                    SSM Commander Overview</t>
+  </si>
+  <si>
+    <t>4.7.26.2                    SSM Commander Battle Management Phases</t>
+  </si>
+  <si>
+    <t>4.7.26.3                    SSM Commander Message Processing</t>
+  </si>
+  <si>
+    <t>4.7.26.3.1               SSM Commander Message Delays</t>
+  </si>
+  <si>
+    <t>4.7.26.3.2               Messages Sent by SSM Commander Ruleset 4.7.26.3.2.1 SSM Commander Track Data</t>
+  </si>
+  <si>
+    <t>4.7.26.3.2.2                                           SSM Commander Border-Crossing Authority</t>
+  </si>
+  <si>
+    <t>4.7.26.3.2.3                                           SSM Commander Commanded Assignment</t>
+  </si>
+  <si>
+    <t>4.7.26.3.2.4                                           SSM Commander Acknowledgment</t>
+  </si>
+  <si>
+    <t>4.7.26.3.3               SSM Commander Received Message Processing 4.7.26.3.3.1 SSM Commander Track Data</t>
+  </si>
+  <si>
+    <t>4.7.26.3.3.2                                           SSM Commander Border-Crossing Authority</t>
+  </si>
+  <si>
+    <t>4.7.26.3.3.3                                           SSM Commander Assignment</t>
+  </si>
+  <si>
+    <t>4.7.26.3.3.4                                           SSM Commander Acknowledgment</t>
+  </si>
+  <si>
+    <t>4.7.26.3.3.5                                           SSM Commander Update Request Message</t>
+  </si>
+  <si>
+    <t>4.7.26.4                    SSM Commander System Configuration</t>
+  </si>
+  <si>
+    <t>4.7.26.5                    SSM Commander Network Recommendations</t>
+  </si>
+  <si>
+    <t>4.7.20.4                    GSM System Configuration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7.22.1                    Delay Overview</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7.24.3                    NOCMD Received-Message Processing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +886,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +1173,1384 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="H167" sqref="H167"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>